--- a/2018/tp.xlsx
+++ b/2018/tp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ESB13240/Dropbox/Social/VoteSimulator/2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22B66C6-2D19-2C4C-B046-5C906F744F3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E3B25-08A3-6A46-B5FC-3E9EA081725B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,16 @@
     <sheet name="2018_2" sheetId="3" r:id="rId2"/>
     <sheet name="2014" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>age</t>
   </si>
@@ -187,6 +191,83 @@
     <t>aha</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2018/5/8
+美麗島 柯P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/8
+美麗島 姚文智</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R + T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍人口 2018.09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>採用2014的投票率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>full</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N + T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014投票率計算
+分群投票數
+J*L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/25
+柯P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/25
+丁守中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/25
+姚文智</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁守中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">姚文智
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">其他
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +277,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;－&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +344,12 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,7 +450,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -407,6 +494,7 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -425,6 +513,1003 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5565-A240-BD21-58AEE2683618}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5565-A240-BD21-58AEE2683618}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5565-A240-BD21-58AEE2683618}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5565-A240-BD21-58AEE2683618}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5565-A240-BD21-58AEE2683618}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5565-A240-BD21-58AEE2683618}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5565-A240-BD21-58AEE2683618}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5565-A240-BD21-58AEE2683618}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2018'!$AO$19:$AR$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>柯P</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>丁守中</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>姚文智
+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>其他
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018'!$AO$33:$AR$33</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>710282.55560000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>484378.54849999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>569036.367478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>415250.52842199989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5565-A240-BD21-58AEE2683618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D2ACB0-CD27-3349-8E15-A86B783F809C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1 (2)"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="工作表1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="U1" t="str">
+            <v>連勝文</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,11 +1797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AS48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20:B32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -730,22 +1815,22 @@
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.796875" customWidth="1"/>
     <col min="10" max="10" width="17.3984375" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" customWidth="1"/>
-    <col min="12" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" customWidth="1"/>
-    <col min="19" max="19" width="14.3984375" customWidth="1"/>
-    <col min="20" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.59765625" customWidth="1"/>
-    <col min="25" max="25" width="13.796875" customWidth="1"/>
-    <col min="26" max="26" width="14" customWidth="1"/>
-    <col min="27" max="27" width="14.796875" customWidth="1"/>
-    <col min="28" max="28" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.796875" customWidth="1"/>
+    <col min="11" max="13" width="15.19921875" customWidth="1"/>
+    <col min="14" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.796875" customWidth="1"/>
+    <col min="24" max="24" width="14.3984375" customWidth="1"/>
+    <col min="25" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.59765625" customWidth="1"/>
+    <col min="30" max="30" width="13.796875" customWidth="1"/>
+    <col min="31" max="31" width="14" customWidth="1"/>
+    <col min="32" max="32" width="14.796875" customWidth="1"/>
+    <col min="33" max="33" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45">
+    <row r="1" spans="1:37" ht="60">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,70 +1862,83 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -877,75 +1975,88 @@
         <f>I2/J2</f>
         <v>0.64798253419014673</v>
       </c>
-      <c r="N2">
+      <c r="L2" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="M2" s="6">
+        <f>L2*J2</f>
+        <v>99046.080000000002</v>
+      </c>
+      <c r="P2">
         <v>0.37490000000000001</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.16</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="V2">
         <v>0.59</v>
       </c>
-      <c r="R2">
+      <c r="W2">
         <v>0.18</v>
       </c>
-      <c r="S2">
+      <c r="X2">
         <v>0.11</v>
       </c>
-      <c r="T2" s="6">
-        <f>Q2*J2</f>
+      <c r="Y2" s="6">
+        <f t="shared" ref="Y2:Y13" si="0">V2*J2</f>
         <v>85937.04</v>
       </c>
-      <c r="U2" s="6">
-        <f>J2*R2</f>
+      <c r="Z2" s="6">
+        <f t="shared" ref="Z2:Z13" si="1">J2*W2</f>
         <v>26218.079999999998</v>
       </c>
-      <c r="V2" s="6">
-        <f>J2*S2</f>
+      <c r="AA2" s="6">
+        <f t="shared" ref="AA2:AA13" si="2">J2*X2</f>
         <v>16022.16</v>
       </c>
-      <c r="W2" s="6">
-        <f>J2-T2-U2-V2</f>
+      <c r="AB2" s="6">
+        <f t="shared" ref="AB2:AB13" si="3">J2-Y2-Z2-AA2</f>
         <v>17478.720000000005</v>
       </c>
-      <c r="X2" s="8">
-        <f>W2/J2</f>
+      <c r="AC2" s="8">
+        <f t="shared" ref="AC2:AC13" si="4">AB2/J2</f>
         <v>0.12000000000000004</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="AD2" s="5">
         <v>61.4</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="AE2" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AF2" s="5">
         <v>3.8</v>
       </c>
-      <c r="AB2" s="12">
-        <f>Y2*J2 / 100</f>
+      <c r="AG2" s="12">
+        <f t="shared" ref="AG2:AG13" si="5">AD2*J2 / 100</f>
         <v>89432.784</v>
       </c>
-      <c r="AC2" s="12">
-        <f>Z2*J2 / 100</f>
+      <c r="AH2" s="12">
+        <f t="shared" ref="AH2:AH13" si="6">AE2*J2 / 100</f>
         <v>23887.583999999999</v>
       </c>
-      <c r="AD2" s="12">
-        <f>AA2*J2 / 100</f>
+      <c r="AI2" s="12">
+        <f t="shared" ref="AI2:AI13" si="7">AF2*J2 / 100</f>
         <v>5534.927999999999</v>
       </c>
-      <c r="AE2" s="6">
-        <f>J2-AB2-AC2-AD2</f>
+      <c r="AJ2" s="6">
+        <f t="shared" ref="AJ2:AJ13" si="8">J2-AG2-AH2-AI2</f>
         <v>26800.704000000002</v>
       </c>
-      <c r="AF2" s="7">
-        <f>AE2/J2</f>
+      <c r="AK2" s="7">
+        <f t="shared" ref="AK2:AK13" si="9">AJ2/J2</f>
         <v>0.184</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -971,86 +2082,99 @@
         <v>48182.53</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I14" si="0">SUM(G3:H3)</f>
+        <f t="shared" ref="I3:I14" si="10">SUM(G3:H3)</f>
         <v>95806.212</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J14" si="1">SUM(C3:D3)</f>
+        <f t="shared" ref="J3:J14" si="11">SUM(C3:D3)</f>
         <v>153441</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" ref="K3:K15" si="2">I3/J3</f>
+        <f t="shared" ref="K3:K15" si="12">I3/J3</f>
         <v>0.62438469509453143</v>
       </c>
-      <c r="N3">
+      <c r="L3" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3:M14" si="13">L3*J3</f>
+        <v>104339.88</v>
+      </c>
+      <c r="P3">
         <v>0.37490000000000001</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.16</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="V3">
         <v>0.59</v>
       </c>
-      <c r="R3">
+      <c r="W3">
         <v>0.18</v>
       </c>
-      <c r="S3">
+      <c r="X3">
         <v>0.11</v>
       </c>
-      <c r="T3" s="6">
-        <f t="shared" ref="T3:T14" si="3">Q3*J3</f>
+      <c r="Y3" s="6">
+        <f t="shared" si="0"/>
         <v>90530.19</v>
       </c>
-      <c r="U3" s="6">
-        <f t="shared" ref="U3:U14" si="4">J3*R3</f>
+      <c r="Z3" s="6">
+        <f t="shared" si="1"/>
         <v>27619.379999999997</v>
       </c>
-      <c r="V3" s="6">
-        <f t="shared" ref="V3:V14" si="5">J3*S3</f>
+      <c r="AA3" s="6">
+        <f t="shared" si="2"/>
         <v>16878.509999999998</v>
       </c>
-      <c r="W3" s="6">
-        <f t="shared" ref="W3:W14" si="6">J3-T3-U3-V3</f>
+      <c r="AB3" s="6">
+        <f t="shared" si="3"/>
         <v>18412.920000000002</v>
       </c>
-      <c r="X3" s="8">
-        <f t="shared" ref="X3:X15" si="7">W3/J3</f>
+      <c r="AC3" s="8">
+        <f t="shared" si="4"/>
         <v>0.12000000000000001</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="AD3" s="5">
         <v>61.4</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="AE3" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AF3" s="5">
         <v>3.8</v>
       </c>
-      <c r="AB3" s="12">
-        <f t="shared" ref="AB3:AB14" si="8">Y3*J3 / 100</f>
+      <c r="AG3" s="12">
+        <f t="shared" si="5"/>
         <v>94212.774000000005</v>
       </c>
-      <c r="AC3" s="12">
-        <f t="shared" ref="AC3:AC14" si="9">Z3*J3 / 100</f>
+      <c r="AH3" s="12">
+        <f t="shared" si="6"/>
         <v>25164.324000000001</v>
       </c>
-      <c r="AD3" s="12">
-        <f t="shared" ref="AD3:AD14" si="10">AA3*J3 / 100</f>
+      <c r="AI3" s="12">
+        <f t="shared" si="7"/>
         <v>5830.7579999999989</v>
       </c>
-      <c r="AE3" s="6">
-        <f t="shared" ref="AE3:AE14" si="11">J3-AB3-AC3-AD3</f>
+      <c r="AJ3" s="6">
+        <f t="shared" si="8"/>
         <v>28233.143999999997</v>
       </c>
-      <c r="AF3" s="7">
-        <f t="shared" ref="AF3:AF15" si="12">AE3/J3</f>
+      <c r="AK3" s="7">
+        <f t="shared" si="9"/>
         <v>0.18399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -1076,89 +2200,102 @@
         <v>63523.421999999991</v>
       </c>
       <c r="I4" s="6">
+        <f t="shared" si="10"/>
+        <v>115514.70199999999</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="11"/>
+        <v>182038</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" si="12"/>
+        <v>0.63456367351871579</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="13"/>
+        <v>141989.64000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="P4">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.22</v>
+      </c>
+      <c r="S4">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="T4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="V4">
+        <v>0.64</v>
+      </c>
+      <c r="W4">
+        <v>0.2</v>
+      </c>
+      <c r="X4">
+        <v>0.08</v>
+      </c>
+      <c r="Y4" s="6">
         <f t="shared" si="0"/>
-        <v>115514.70199999999</v>
-      </c>
-      <c r="J4">
+        <v>116504.32000000001</v>
+      </c>
+      <c r="Z4" s="6">
         <f t="shared" si="1"/>
-        <v>182038</v>
-      </c>
-      <c r="K4" s="8">
+        <v>36407.599999999999</v>
+      </c>
+      <c r="AA4" s="6">
         <f t="shared" si="2"/>
-        <v>0.63456367351871579</v>
-      </c>
-      <c r="M4">
-        <v>0.36959999999999998</v>
-      </c>
-      <c r="N4">
-        <v>0.37490000000000001</v>
-      </c>
-      <c r="O4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P4">
-        <v>0.22</v>
-      </c>
-      <c r="Q4">
-        <v>0.64</v>
-      </c>
-      <c r="R4">
-        <v>0.2</v>
-      </c>
-      <c r="S4">
-        <v>0.08</v>
-      </c>
-      <c r="T4" s="6">
+        <v>14563.04</v>
+      </c>
+      <c r="AB4" s="6">
         <f t="shared" si="3"/>
-        <v>116504.32000000001</v>
-      </c>
-      <c r="U4" s="6">
+        <v>14563.039999999994</v>
+      </c>
+      <c r="AC4" s="8">
         <f t="shared" si="4"/>
-        <v>36407.599999999999</v>
-      </c>
-      <c r="V4" s="6">
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>63</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>8</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="AG4" s="12">
         <f t="shared" si="5"/>
+        <v>114683.94</v>
+      </c>
+      <c r="AH4" s="12">
+        <f t="shared" si="6"/>
         <v>14563.04</v>
       </c>
-      <c r="W4" s="6">
-        <f t="shared" si="6"/>
-        <v>14563.039999999994</v>
-      </c>
-      <c r="X4" s="8">
+      <c r="AI4" s="12">
         <f t="shared" si="7"/>
-        <v>7.999999999999996E-2</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>63</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>8</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>9.6</v>
-      </c>
-      <c r="AB4" s="12">
+        <v>17475.648000000001</v>
+      </c>
+      <c r="AJ4" s="6">
         <f t="shared" si="8"/>
-        <v>114683.94</v>
-      </c>
-      <c r="AC4" s="12">
+        <v>35315.371999999996</v>
+      </c>
+      <c r="AK4" s="7">
         <f t="shared" si="9"/>
-        <v>14563.04</v>
-      </c>
-      <c r="AD4" s="12">
-        <f t="shared" si="10"/>
-        <v>17475.648000000001</v>
-      </c>
-      <c r="AE4" s="6">
-        <f t="shared" si="11"/>
-        <v>35315.371999999996</v>
-      </c>
-      <c r="AF4" s="7">
-        <f t="shared" si="12"/>
         <v>0.19399999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -1184,92 +2321,105 @@
         <v>80929.440000000002</v>
       </c>
       <c r="I5" s="6">
+        <f t="shared" si="10"/>
+        <v>151078.28</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="11"/>
+        <v>236467</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" si="12"/>
+        <v>0.63889794347625672</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="13"/>
+        <v>184444.26</v>
+      </c>
+      <c r="N5">
+        <v>0.3589</v>
+      </c>
+      <c r="O5">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="P5">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R5">
+        <v>0.22</v>
+      </c>
+      <c r="S5">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="T5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="V5">
+        <v>0.64</v>
+      </c>
+      <c r="W5">
+        <v>0.2</v>
+      </c>
+      <c r="X5">
+        <v>0.08</v>
+      </c>
+      <c r="Y5" s="6">
         <f t="shared" si="0"/>
-        <v>151078.28</v>
-      </c>
-      <c r="J5">
+        <v>151338.88</v>
+      </c>
+      <c r="Z5" s="6">
         <f t="shared" si="1"/>
-        <v>236467</v>
-      </c>
-      <c r="K5" s="8">
+        <v>47293.4</v>
+      </c>
+      <c r="AA5" s="6">
         <f t="shared" si="2"/>
-        <v>0.63889794347625672</v>
-      </c>
-      <c r="L5">
-        <v>0.3589</v>
-      </c>
-      <c r="M5">
-        <v>0.36959999999999998</v>
-      </c>
-      <c r="N5">
-        <v>0.37490000000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P5">
-        <v>0.22</v>
-      </c>
-      <c r="Q5">
-        <v>0.64</v>
-      </c>
-      <c r="R5">
-        <v>0.2</v>
-      </c>
-      <c r="S5">
-        <v>0.08</v>
-      </c>
-      <c r="T5" s="6">
+        <v>18917.36</v>
+      </c>
+      <c r="AB5" s="6">
         <f t="shared" si="3"/>
-        <v>151338.88</v>
-      </c>
-      <c r="U5" s="6">
+        <v>18917.359999999993</v>
+      </c>
+      <c r="AC5" s="8">
         <f t="shared" si="4"/>
-        <v>47293.4</v>
-      </c>
-      <c r="V5" s="6">
+        <v>7.9999999999999974E-2</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>63</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>8</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="AG5" s="12">
         <f t="shared" si="5"/>
+        <v>148974.21</v>
+      </c>
+      <c r="AH5" s="12">
+        <f t="shared" si="6"/>
         <v>18917.36</v>
       </c>
-      <c r="W5" s="6">
-        <f t="shared" si="6"/>
-        <v>18917.359999999993</v>
-      </c>
-      <c r="X5" s="8">
+      <c r="AI5" s="12">
         <f t="shared" si="7"/>
-        <v>7.9999999999999974E-2</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>63</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>8</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>9.6</v>
-      </c>
-      <c r="AB5" s="12">
+        <v>22700.831999999999</v>
+      </c>
+      <c r="AJ5" s="6">
         <f t="shared" si="8"/>
-        <v>148974.21</v>
-      </c>
-      <c r="AC5" s="12">
+        <v>45874.598000000013</v>
+      </c>
+      <c r="AK5" s="7">
         <f t="shared" si="9"/>
-        <v>18917.36</v>
-      </c>
-      <c r="AD5" s="12">
-        <f t="shared" si="10"/>
-        <v>22700.831999999999</v>
-      </c>
-      <c r="AE5" s="6">
-        <f t="shared" si="11"/>
-        <v>45874.598000000013</v>
-      </c>
-      <c r="AF5" s="7">
-        <f t="shared" si="12"/>
         <v>0.19400000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -1295,92 +2445,105 @@
         <v>72804.827999999994</v>
       </c>
       <c r="I6" s="6">
+        <f t="shared" si="10"/>
+        <v>132492.291</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="11"/>
+        <v>214452</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="12"/>
+        <v>0.61781793128532259</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="13"/>
+        <v>190862.28</v>
+      </c>
+      <c r="N6">
+        <v>0.3589</v>
+      </c>
+      <c r="O6">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R6">
+        <v>0.34</v>
+      </c>
+      <c r="S6">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="T6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="V6">
+        <v>0.52</v>
+      </c>
+      <c r="W6">
+        <v>0.35</v>
+      </c>
+      <c r="X6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y6" s="6">
         <f t="shared" si="0"/>
-        <v>132492.291</v>
-      </c>
-      <c r="J6">
+        <v>111515.04000000001</v>
+      </c>
+      <c r="Z6" s="6">
         <f t="shared" si="1"/>
-        <v>214452</v>
-      </c>
-      <c r="K6" s="8">
+        <v>75058.2</v>
+      </c>
+      <c r="AA6" s="6">
         <f t="shared" si="2"/>
-        <v>0.61781793128532259</v>
-      </c>
-      <c r="L6">
-        <v>0.3589</v>
-      </c>
-      <c r="M6">
-        <v>0.36959999999999998</v>
-      </c>
-      <c r="N6">
-        <v>0.37490000000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P6">
-        <v>0.34</v>
-      </c>
-      <c r="Q6">
-        <v>0.52</v>
-      </c>
-      <c r="R6">
-        <v>0.35</v>
-      </c>
-      <c r="S6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T6" s="6">
+        <v>15011.640000000001</v>
+      </c>
+      <c r="AB6" s="6">
         <f t="shared" si="3"/>
-        <v>111515.04000000001</v>
-      </c>
-      <c r="U6" s="6">
+        <v>12867.119999999994</v>
+      </c>
+      <c r="AC6" s="8">
         <f t="shared" si="4"/>
-        <v>75058.2</v>
-      </c>
-      <c r="V6" s="6">
+        <v>5.999999999999997E-2</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>41.2</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="AG6" s="12">
         <f t="shared" si="5"/>
-        <v>15011.640000000001</v>
-      </c>
-      <c r="W6" s="6">
+        <v>88354.224000000002</v>
+      </c>
+      <c r="AH6" s="12">
         <f t="shared" si="6"/>
-        <v>12867.119999999994</v>
-      </c>
-      <c r="X6" s="8">
+        <v>49538.412000000004</v>
+      </c>
+      <c r="AI6" s="12">
         <f t="shared" si="7"/>
-        <v>5.999999999999997E-2</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>41.2</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>23.1</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="AB6" s="12">
+        <v>18228.419999999998</v>
+      </c>
+      <c r="AJ6" s="6">
         <f t="shared" si="8"/>
-        <v>88354.224000000002</v>
-      </c>
-      <c r="AC6" s="12">
+        <v>58330.944000000003</v>
+      </c>
+      <c r="AK6" s="7">
         <f t="shared" si="9"/>
-        <v>49538.412000000004</v>
-      </c>
-      <c r="AD6" s="12">
-        <f t="shared" si="10"/>
-        <v>18228.419999999998</v>
-      </c>
-      <c r="AE6" s="6">
-        <f t="shared" si="11"/>
-        <v>58330.944000000003</v>
-      </c>
-      <c r="AF6" s="7">
-        <f t="shared" si="12"/>
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -1406,92 +2569,105 @@
         <v>76574.888000000006</v>
       </c>
       <c r="I7" s="6">
+        <f t="shared" si="10"/>
+        <v>136360.89600000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="11"/>
+        <v>200097</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="12"/>
+        <v>0.68147396512691349</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="13"/>
+        <v>178086.33000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.3589</v>
+      </c>
+      <c r="O7">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="P7">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R7">
+        <v>0.34</v>
+      </c>
+      <c r="S7">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="T7">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="V7">
+        <v>0.52</v>
+      </c>
+      <c r="W7">
+        <v>0.35</v>
+      </c>
+      <c r="X7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y7" s="6">
         <f t="shared" si="0"/>
-        <v>136360.89600000001</v>
-      </c>
-      <c r="J7">
+        <v>104050.44</v>
+      </c>
+      <c r="Z7" s="6">
         <f t="shared" si="1"/>
-        <v>200097</v>
-      </c>
-      <c r="K7" s="8">
+        <v>70033.95</v>
+      </c>
+      <c r="AA7" s="6">
         <f t="shared" si="2"/>
-        <v>0.68147396512691349</v>
-      </c>
-      <c r="L7">
-        <v>0.3589</v>
-      </c>
-      <c r="M7">
-        <v>0.36959999999999998</v>
-      </c>
-      <c r="N7">
-        <v>0.37490000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P7">
-        <v>0.34</v>
-      </c>
-      <c r="Q7">
-        <v>0.52</v>
-      </c>
-      <c r="R7">
-        <v>0.35</v>
-      </c>
-      <c r="S7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T7" s="6">
+        <v>14006.79</v>
+      </c>
+      <c r="AB7" s="6">
         <f t="shared" si="3"/>
-        <v>104050.44</v>
-      </c>
-      <c r="U7" s="6">
+        <v>12005.82</v>
+      </c>
+      <c r="AC7" s="8">
         <f t="shared" si="4"/>
-        <v>70033.95</v>
-      </c>
-      <c r="V7" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>41.2</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="AG7" s="12">
         <f t="shared" si="5"/>
-        <v>14006.79</v>
-      </c>
-      <c r="W7" s="6">
+        <v>82439.964000000007</v>
+      </c>
+      <c r="AH7" s="12">
         <f t="shared" si="6"/>
-        <v>12005.82</v>
-      </c>
-      <c r="X7" s="8">
+        <v>46222.406999999999</v>
+      </c>
+      <c r="AI7" s="12">
         <f t="shared" si="7"/>
-        <v>0.06</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>41.2</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>23.1</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="AB7" s="12">
+        <v>17008.244999999999</v>
+      </c>
+      <c r="AJ7" s="6">
         <f t="shared" si="8"/>
-        <v>82439.964000000007</v>
-      </c>
-      <c r="AC7" s="12">
+        <v>54426.383999999991</v>
+      </c>
+      <c r="AK7" s="7">
         <f t="shared" si="9"/>
-        <v>46222.406999999999</v>
-      </c>
-      <c r="AD7" s="12">
-        <f t="shared" si="10"/>
-        <v>17008.244999999999</v>
-      </c>
-      <c r="AE7" s="6">
-        <f t="shared" si="11"/>
-        <v>54426.383999999991</v>
-      </c>
-      <c r="AF7" s="7">
-        <f t="shared" si="12"/>
         <v>0.27199999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -1517,92 +2693,105 @@
         <v>77847.723000000013</v>
       </c>
       <c r="I8" s="6">
+        <f t="shared" si="10"/>
+        <v>135692.23500000002</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="11"/>
+        <v>199043</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="12"/>
+        <v>0.68172322061062185</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="13"/>
+        <v>177148.27</v>
+      </c>
+      <c r="N8">
+        <v>0.3589</v>
+      </c>
+      <c r="O8">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="P8">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S8">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="T8">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="V8">
+        <v>0.32</v>
+      </c>
+      <c r="W8">
+        <v>0.42</v>
+      </c>
+      <c r="X8">
+        <v>0.12</v>
+      </c>
+      <c r="Y8" s="6">
         <f t="shared" si="0"/>
-        <v>135692.23500000002</v>
-      </c>
-      <c r="J8">
+        <v>63693.760000000002</v>
+      </c>
+      <c r="Z8" s="6">
         <f t="shared" si="1"/>
-        <v>199043</v>
-      </c>
-      <c r="K8" s="8">
+        <v>83598.06</v>
+      </c>
+      <c r="AA8" s="6">
         <f t="shared" si="2"/>
-        <v>0.68172322061062185</v>
-      </c>
-      <c r="L8">
-        <v>0.3589</v>
-      </c>
-      <c r="M8">
-        <v>0.36959999999999998</v>
-      </c>
-      <c r="N8">
-        <v>0.37490000000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P8">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Q8">
-        <v>0.32</v>
-      </c>
-      <c r="R8">
-        <v>0.42</v>
-      </c>
-      <c r="S8">
-        <v>0.12</v>
-      </c>
-      <c r="T8" s="6">
+        <v>23885.16</v>
+      </c>
+      <c r="AB8" s="6">
         <f t="shared" si="3"/>
-        <v>63693.760000000002</v>
-      </c>
-      <c r="U8" s="6">
+        <v>27866.019999999993</v>
+      </c>
+      <c r="AC8" s="8">
         <f t="shared" si="4"/>
-        <v>83598.06</v>
-      </c>
-      <c r="V8" s="6">
+        <v>0.13999999999999996</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>30.7</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>30.9</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>12</v>
+      </c>
+      <c r="AG8" s="12">
         <f t="shared" si="5"/>
+        <v>61106.200999999994</v>
+      </c>
+      <c r="AH8" s="12">
+        <f t="shared" si="6"/>
+        <v>61504.286999999989</v>
+      </c>
+      <c r="AI8" s="12">
+        <f t="shared" si="7"/>
         <v>23885.16</v>
       </c>
-      <c r="W8" s="6">
-        <f t="shared" si="6"/>
-        <v>27866.019999999993</v>
-      </c>
-      <c r="X8" s="8">
-        <f t="shared" si="7"/>
-        <v>0.13999999999999996</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>30.7</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>30.9</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>12</v>
-      </c>
-      <c r="AB8" s="12">
+      <c r="AJ8" s="6">
         <f t="shared" si="8"/>
-        <v>61106.200999999994</v>
-      </c>
-      <c r="AC8" s="12">
+        <v>52547.352000000014</v>
+      </c>
+      <c r="AK8" s="7">
         <f t="shared" si="9"/>
-        <v>61504.286999999989</v>
-      </c>
-      <c r="AD8" s="12">
-        <f t="shared" si="10"/>
-        <v>23885.16</v>
-      </c>
-      <c r="AE8" s="6">
-        <f t="shared" si="11"/>
-        <v>52547.352000000014</v>
-      </c>
-      <c r="AF8" s="7">
-        <f t="shared" si="12"/>
         <v>0.26400000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>15</v>
       </c>
@@ -1628,92 +2817,105 @@
         <v>79258.368000000002</v>
       </c>
       <c r="I9" s="6">
+        <f t="shared" si="10"/>
+        <v>144114.38400000002</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="11"/>
+        <v>200472</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="12"/>
+        <v>0.7188753741170838</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="13"/>
+        <v>178420.08000000002</v>
+      </c>
+      <c r="N9">
+        <v>0.3589</v>
+      </c>
+      <c r="O9">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="P9">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S9">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="T9">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="V9">
+        <v>0.32</v>
+      </c>
+      <c r="W9">
+        <v>0.42</v>
+      </c>
+      <c r="X9">
+        <v>0.12</v>
+      </c>
+      <c r="Y9" s="6">
         <f t="shared" si="0"/>
-        <v>144114.38400000002</v>
-      </c>
-      <c r="J9">
+        <v>64151.040000000001</v>
+      </c>
+      <c r="Z9" s="6">
         <f t="shared" si="1"/>
-        <v>200472</v>
-      </c>
-      <c r="K9" s="8">
+        <v>84198.239999999991</v>
+      </c>
+      <c r="AA9" s="6">
         <f t="shared" si="2"/>
-        <v>0.7188753741170838</v>
-      </c>
-      <c r="L9">
-        <v>0.3589</v>
-      </c>
-      <c r="M9">
-        <v>0.36959999999999998</v>
-      </c>
-      <c r="N9">
-        <v>0.37490000000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Q9">
-        <v>0.32</v>
-      </c>
-      <c r="R9">
-        <v>0.42</v>
-      </c>
-      <c r="S9">
-        <v>0.12</v>
-      </c>
-      <c r="T9" s="6">
+        <v>24056.639999999999</v>
+      </c>
+      <c r="AB9" s="6">
         <f t="shared" si="3"/>
-        <v>64151.040000000001</v>
-      </c>
-      <c r="U9" s="6">
+        <v>28066.080000000002</v>
+      </c>
+      <c r="AC9" s="8">
         <f t="shared" si="4"/>
-        <v>84198.239999999991</v>
-      </c>
-      <c r="V9" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>30.7</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>30.9</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>12</v>
+      </c>
+      <c r="AG9" s="12">
         <f t="shared" si="5"/>
+        <v>61544.903999999995</v>
+      </c>
+      <c r="AH9" s="12">
+        <f t="shared" si="6"/>
+        <v>61945.847999999998</v>
+      </c>
+      <c r="AI9" s="12">
+        <f t="shared" si="7"/>
         <v>24056.639999999999</v>
       </c>
-      <c r="W9" s="6">
-        <f t="shared" si="6"/>
-        <v>28066.080000000002</v>
-      </c>
-      <c r="X9" s="8">
-        <f t="shared" si="7"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>30.7</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>30.9</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>12</v>
-      </c>
-      <c r="AB9" s="12">
+      <c r="AJ9" s="6">
         <f t="shared" si="8"/>
-        <v>61544.903999999995</v>
-      </c>
-      <c r="AC9" s="12">
+        <v>52924.608000000022</v>
+      </c>
+      <c r="AK9" s="7">
         <f t="shared" si="9"/>
-        <v>61945.847999999998</v>
-      </c>
-      <c r="AD9" s="12">
-        <f t="shared" si="10"/>
-        <v>24056.639999999999</v>
-      </c>
-      <c r="AE9" s="6">
-        <f t="shared" si="11"/>
-        <v>52924.608000000022</v>
-      </c>
-      <c r="AF9" s="7">
-        <f t="shared" si="12"/>
         <v>0.26400000000000012</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -1739,92 +2941,105 @@
         <v>79419.481999999989</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>148122.16399999999</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>194523</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0.76146349788970968</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="13"/>
+        <v>175070.7</v>
+      </c>
+      <c r="N10">
         <v>0.3589</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.36959999999999998</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>0.37490000000000001</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.26</v>
-      </c>
-      <c r="Q10">
-        <v>0.13</v>
-      </c>
-      <c r="R10">
-        <v>0.44</v>
       </c>
       <c r="S10">
         <v>0.2</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="V10">
+        <v>0.13</v>
+      </c>
+      <c r="W10">
+        <v>0.44</v>
+      </c>
+      <c r="X10">
+        <v>0.2</v>
+      </c>
+      <c r="Y10" s="6">
+        <f t="shared" si="0"/>
+        <v>25287.99</v>
+      </c>
+      <c r="Z10" s="6">
+        <f t="shared" si="1"/>
+        <v>85590.12</v>
+      </c>
+      <c r="AA10" s="6">
+        <f t="shared" si="2"/>
+        <v>38904.6</v>
+      </c>
+      <c r="AB10" s="6">
         <f t="shared" si="3"/>
-        <v>25287.99</v>
-      </c>
-      <c r="U10" s="6">
+        <v>44740.290000000015</v>
+      </c>
+      <c r="AC10" s="8">
         <f t="shared" si="4"/>
-        <v>85590.12</v>
-      </c>
-      <c r="V10" s="6">
+        <v>0.23000000000000007</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>17</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="AG10" s="12">
         <f t="shared" si="5"/>
-        <v>38904.6</v>
-      </c>
-      <c r="W10" s="6">
+        <v>33068.910000000003</v>
+      </c>
+      <c r="AH10" s="12">
         <f t="shared" si="6"/>
-        <v>44740.290000000015</v>
-      </c>
-      <c r="X10" s="8">
+        <v>76253.016000000003</v>
+      </c>
+      <c r="AI10" s="12">
         <f t="shared" si="7"/>
-        <v>0.23000000000000007</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>17</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>14.5</v>
-      </c>
-      <c r="AB10" s="12">
+        <v>28205.834999999999</v>
+      </c>
+      <c r="AJ10" s="6">
         <f t="shared" si="8"/>
-        <v>33068.910000000003</v>
-      </c>
-      <c r="AC10" s="12">
+        <v>56995.238999999994</v>
+      </c>
+      <c r="AK10" s="7">
         <f t="shared" si="9"/>
-        <v>76253.016000000003</v>
-      </c>
-      <c r="AD10" s="12">
-        <f t="shared" si="10"/>
-        <v>28205.834999999999</v>
-      </c>
-      <c r="AE10" s="6">
-        <f t="shared" si="11"/>
-        <v>56995.238999999994</v>
-      </c>
-      <c r="AF10" s="7">
-        <f t="shared" si="12"/>
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>19</v>
       </c>
@@ -1850,92 +3065,105 @@
         <v>71783.145000000004</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>133101.85</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>170498</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0.78066516909289263</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="13"/>
+        <v>153448.20000000001</v>
+      </c>
+      <c r="N11">
         <v>0.3589</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.36959999999999998</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>0.37490000000000001</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.26</v>
-      </c>
-      <c r="Q11">
-        <v>0.13</v>
-      </c>
-      <c r="R11">
-        <v>0.44</v>
       </c>
       <c r="S11">
         <v>0.2</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="V11">
+        <v>0.13</v>
+      </c>
+      <c r="W11">
+        <v>0.44</v>
+      </c>
+      <c r="X11">
+        <v>0.2</v>
+      </c>
+      <c r="Y11" s="6">
+        <f t="shared" si="0"/>
+        <v>22164.74</v>
+      </c>
+      <c r="Z11" s="6">
+        <f t="shared" si="1"/>
+        <v>75019.12</v>
+      </c>
+      <c r="AA11" s="6">
+        <f t="shared" si="2"/>
+        <v>34099.599999999999</v>
+      </c>
+      <c r="AB11" s="6">
         <f t="shared" si="3"/>
-        <v>22164.74</v>
-      </c>
-      <c r="U11" s="6">
+        <v>39214.540000000015</v>
+      </c>
+      <c r="AC11" s="8">
         <f t="shared" si="4"/>
-        <v>75019.12</v>
-      </c>
-      <c r="V11" s="6">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>17</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="AG11" s="12">
         <f t="shared" si="5"/>
-        <v>34099.599999999999</v>
-      </c>
-      <c r="W11" s="6">
+        <v>28984.66</v>
+      </c>
+      <c r="AH11" s="12">
         <f t="shared" si="6"/>
-        <v>39214.540000000015</v>
-      </c>
-      <c r="X11" s="8">
+        <v>66835.216</v>
+      </c>
+      <c r="AI11" s="12">
         <f t="shared" si="7"/>
-        <v>0.23000000000000009</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>17</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>14.5</v>
-      </c>
-      <c r="AB11" s="12">
+        <v>24722.21</v>
+      </c>
+      <c r="AJ11" s="6">
         <f t="shared" si="8"/>
-        <v>28984.66</v>
-      </c>
-      <c r="AC11" s="12">
+        <v>49955.913999999997</v>
+      </c>
+      <c r="AK11" s="7">
         <f t="shared" si="9"/>
-        <v>66835.216</v>
-      </c>
-      <c r="AD11" s="12">
-        <f t="shared" si="10"/>
-        <v>24722.21</v>
-      </c>
-      <c r="AE11" s="6">
-        <f t="shared" si="11"/>
-        <v>49955.913999999997</v>
-      </c>
-      <c r="AF11" s="7">
-        <f t="shared" si="12"/>
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -1961,92 +3189,105 @@
         <v>43138.991999999998</v>
       </c>
       <c r="I12" s="6">
+        <f t="shared" si="10"/>
+        <v>78975.822</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="11"/>
+        <v>97699</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="12"/>
+        <v>0.80835855024104653</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="13"/>
+        <v>87929.1</v>
+      </c>
+      <c r="N12">
+        <v>0.3589</v>
+      </c>
+      <c r="O12">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="P12">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R12">
+        <v>0.26</v>
+      </c>
+      <c r="S12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="T12">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="V12">
+        <v>0.13</v>
+      </c>
+      <c r="W12">
+        <v>0.44</v>
+      </c>
+      <c r="X12">
+        <v>0.2</v>
+      </c>
+      <c r="Y12" s="6">
         <f t="shared" si="0"/>
-        <v>78975.822</v>
-      </c>
-      <c r="J12">
+        <v>12700.87</v>
+      </c>
+      <c r="Z12" s="6">
         <f t="shared" si="1"/>
-        <v>97699</v>
-      </c>
-      <c r="K12" s="8">
+        <v>42987.56</v>
+      </c>
+      <c r="AA12" s="6">
         <f t="shared" si="2"/>
-        <v>0.80835855024104653</v>
-      </c>
-      <c r="L12">
-        <v>0.3589</v>
-      </c>
-      <c r="M12">
-        <v>0.36959999999999998</v>
-      </c>
-      <c r="N12">
-        <v>0.37490000000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P12">
-        <v>0.26</v>
-      </c>
-      <c r="Q12">
-        <v>0.13</v>
-      </c>
-      <c r="R12">
-        <v>0.44</v>
-      </c>
-      <c r="S12">
-        <v>0.2</v>
-      </c>
-      <c r="T12" s="6">
+        <v>19539.8</v>
+      </c>
+      <c r="AB12" s="6">
         <f t="shared" si="3"/>
-        <v>12700.87</v>
-      </c>
-      <c r="U12" s="6">
+        <v>22470.770000000008</v>
+      </c>
+      <c r="AC12" s="8">
         <f t="shared" si="4"/>
-        <v>42987.56</v>
-      </c>
-      <c r="V12" s="6">
+        <v>0.23000000000000007</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>35.4</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>20.3</v>
+      </c>
+      <c r="AG12" s="12">
         <f t="shared" si="5"/>
-        <v>19539.8</v>
-      </c>
-      <c r="W12" s="6">
+        <v>6545.8330000000005</v>
+      </c>
+      <c r="AH12" s="12">
         <f t="shared" si="6"/>
-        <v>22470.770000000008</v>
-      </c>
-      <c r="X12" s="8">
+        <v>34585.446000000004</v>
+      </c>
+      <c r="AI12" s="12">
         <f t="shared" si="7"/>
-        <v>0.23000000000000007</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>6.7</v>
-      </c>
-      <c r="Z12" s="5">
-        <v>35.4</v>
-      </c>
-      <c r="AA12" s="5">
-        <v>20.3</v>
-      </c>
-      <c r="AB12" s="12">
+        <v>19832.897000000001</v>
+      </c>
+      <c r="AJ12" s="6">
         <f t="shared" si="8"/>
-        <v>6545.8330000000005</v>
-      </c>
-      <c r="AC12" s="12">
+        <v>36734.823999999993</v>
+      </c>
+      <c r="AK12" s="7">
         <f t="shared" si="9"/>
-        <v>34585.446000000004</v>
-      </c>
-      <c r="AD12" s="12">
-        <f t="shared" si="10"/>
-        <v>19832.897000000001</v>
-      </c>
-      <c r="AE12" s="6">
-        <f t="shared" si="11"/>
-        <v>36734.823999999993</v>
-      </c>
-      <c r="AF12" s="7">
-        <f t="shared" si="12"/>
         <v>0.37599999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>23</v>
       </c>
@@ -2072,92 +3313,105 @@
         <v>32331.743999999999</v>
       </c>
       <c r="I13" s="6">
+        <f t="shared" si="10"/>
+        <v>57272.623</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="11"/>
+        <v>76876</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="12"/>
+        <v>0.74500003902388257</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="13"/>
+        <v>69188.400000000009</v>
+      </c>
+      <c r="N13">
+        <v>0.3589</v>
+      </c>
+      <c r="O13">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="P13">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R13">
+        <v>0.26</v>
+      </c>
+      <c r="S13">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="T13">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="V13">
+        <v>0.13</v>
+      </c>
+      <c r="W13">
+        <v>0.44</v>
+      </c>
+      <c r="X13">
+        <v>0.2</v>
+      </c>
+      <c r="Y13" s="6">
         <f t="shared" si="0"/>
-        <v>57272.623</v>
-      </c>
-      <c r="J13">
+        <v>9993.880000000001</v>
+      </c>
+      <c r="Z13" s="6">
         <f t="shared" si="1"/>
-        <v>76876</v>
-      </c>
-      <c r="K13" s="8">
+        <v>33825.440000000002</v>
+      </c>
+      <c r="AA13" s="6">
         <f t="shared" si="2"/>
-        <v>0.74500003902388257</v>
-      </c>
-      <c r="L13">
-        <v>0.3589</v>
-      </c>
-      <c r="M13">
-        <v>0.36959999999999998</v>
-      </c>
-      <c r="N13">
-        <v>0.37490000000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P13">
-        <v>0.26</v>
-      </c>
-      <c r="Q13">
-        <v>0.13</v>
-      </c>
-      <c r="R13">
-        <v>0.44</v>
-      </c>
-      <c r="S13">
-        <v>0.2</v>
-      </c>
-      <c r="T13" s="6">
+        <v>15375.2</v>
+      </c>
+      <c r="AB13" s="6">
         <f t="shared" si="3"/>
-        <v>9993.880000000001</v>
-      </c>
-      <c r="U13" s="6">
+        <v>17681.479999999992</v>
+      </c>
+      <c r="AC13" s="8">
         <f t="shared" si="4"/>
-        <v>33825.440000000002</v>
-      </c>
-      <c r="V13" s="6">
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>35.4</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>20.3</v>
+      </c>
+      <c r="AG13" s="12">
         <f t="shared" si="5"/>
-        <v>15375.2</v>
-      </c>
-      <c r="W13" s="6">
+        <v>5150.692</v>
+      </c>
+      <c r="AH13" s="12">
         <f t="shared" si="6"/>
-        <v>17681.479999999992</v>
-      </c>
-      <c r="X13" s="8">
+        <v>27214.103999999999</v>
+      </c>
+      <c r="AI13" s="12">
         <f t="shared" si="7"/>
-        <v>0.2299999999999999</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>6.7</v>
-      </c>
-      <c r="Z13" s="5">
-        <v>35.4</v>
-      </c>
-      <c r="AA13" s="5">
-        <v>20.3</v>
-      </c>
-      <c r="AB13" s="12">
+        <v>15605.828000000001</v>
+      </c>
+      <c r="AJ13" s="6">
         <f t="shared" si="8"/>
-        <v>5150.692</v>
-      </c>
-      <c r="AC13" s="12">
+        <v>28905.376000000004</v>
+      </c>
+      <c r="AK13" s="7">
         <f t="shared" si="9"/>
-        <v>27214.103999999999</v>
-      </c>
-      <c r="AD13" s="12">
-        <f t="shared" si="10"/>
-        <v>15605.828000000001</v>
-      </c>
-      <c r="AE13" s="6">
-        <f t="shared" si="11"/>
-        <v>28905.376000000004</v>
-      </c>
-      <c r="AF13" s="7">
-        <f t="shared" si="12"/>
         <v>0.37600000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -2180,95 +3434,109 @@
         <v>31093.477999999999</v>
       </c>
       <c r="H14" s="6">
-        <v>102787.625</v>
+        <f>D14*F14/100</f>
+        <v>34305.105000000003</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="0"/>
-        <v>133881.103</v>
+        <f t="shared" si="10"/>
+        <v>65398.582999999999</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>107686</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="2"/>
-        <v>1.2432544899058373</v>
-      </c>
-      <c r="L14">
+        <f t="shared" si="12"/>
+        <v>0.60730812733317241</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="13"/>
+        <v>96917.400000000009</v>
+      </c>
+      <c r="N14">
         <v>0.3589</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>0.36959999999999998</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>0.37490000000000001</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>0.26</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="T14">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="V14">
         <v>0.13</v>
       </c>
-      <c r="R14">
+      <c r="W14">
         <v>0.44</v>
       </c>
-      <c r="S14">
+      <c r="X14">
         <v>0.2</v>
       </c>
-      <c r="T14" s="6">
-        <f t="shared" si="3"/>
+      <c r="Y14" s="6">
+        <f t="shared" ref="Y14" si="14">V14*J14</f>
         <v>13999.18</v>
       </c>
-      <c r="U14" s="6">
-        <f t="shared" si="4"/>
+      <c r="Z14" s="6">
+        <f t="shared" ref="Z14" si="15">J14*W14</f>
         <v>47381.840000000004</v>
       </c>
-      <c r="V14" s="6">
-        <f t="shared" si="5"/>
+      <c r="AA14" s="6">
+        <f t="shared" ref="AA14" si="16">J14*X14</f>
         <v>21537.200000000001</v>
       </c>
-      <c r="W14" s="6">
-        <f t="shared" si="6"/>
+      <c r="AB14" s="6">
+        <f t="shared" ref="AB14" si="17">J14-Y14-Z14-AA14</f>
         <v>24767.780000000002</v>
       </c>
-      <c r="X14" s="8">
-        <f t="shared" si="7"/>
+      <c r="AC14" s="8">
+        <f t="shared" ref="AC14:AC15" si="18">AB14/J14</f>
         <v>0.23</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="AD14" s="5">
         <v>6.7</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="AE14" s="5">
         <v>35.4</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AF14" s="5">
         <v>20.3</v>
       </c>
-      <c r="AB14" s="12">
-        <f t="shared" si="8"/>
+      <c r="AG14" s="12">
+        <f t="shared" ref="AG14" si="19">AD14*J14 / 100</f>
         <v>7214.9620000000004</v>
       </c>
-      <c r="AC14" s="12">
-        <f t="shared" si="9"/>
+      <c r="AH14" s="12">
+        <f t="shared" ref="AH14" si="20">AE14*J14 / 100</f>
         <v>38120.843999999997</v>
       </c>
-      <c r="AD14" s="12">
-        <f t="shared" si="10"/>
+      <c r="AI14" s="12">
+        <f t="shared" ref="AI14" si="21">AF14*J14 / 100</f>
         <v>21860.258000000002</v>
       </c>
-      <c r="AE14" s="6">
-        <f t="shared" si="11"/>
+      <c r="AJ14" s="6">
+        <f t="shared" ref="AJ14" si="22">J14-AG14-AH14-AI14</f>
         <v>40489.936000000002</v>
       </c>
-      <c r="AF14" s="7">
-        <f t="shared" si="12"/>
+      <c r="AK14" s="7">
+        <f t="shared" ref="AK14:AK15" si="23">AJ14/J14</f>
         <v>0.376</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="9" customFormat="1">
+    <row r="15" spans="1:37" s="9" customFormat="1">
       <c r="C15" s="9">
         <f>SUM(C2:C14)</f>
         <v>1019606</v>
@@ -2283,643 +3551,1712 @@
       </c>
       <c r="H15" s="10">
         <f>SUM(H2:H14)</f>
-        <v>875493.94699999993</v>
+        <v>807011.42699999991</v>
       </c>
       <c r="I15" s="10">
         <f>SUM(G15:H15)</f>
-        <v>1556795.1059999997</v>
+        <v>1488312.5859999997</v>
       </c>
       <c r="J15" s="9">
         <f>SUM(C15:D15)</f>
         <v>2178948</v>
       </c>
       <c r="K15" s="11">
-        <f t="shared" si="2"/>
-        <v>0.7144709768200066</v>
-      </c>
-      <c r="T15" s="10">
-        <f>SUM(T2:T14)</f>
+        <f t="shared" si="12"/>
+        <v>0.68304181008449938</v>
+      </c>
+      <c r="L15" s="11">
+        <f>M15/J15</f>
+        <v>0.84301718994670827</v>
+      </c>
+      <c r="M15" s="10">
+        <f>SUM(M2:M14)</f>
+        <v>1836890.62</v>
+      </c>
+      <c r="Y15" s="10">
+        <f>SUM(Y2:Y14)</f>
         <v>871867.37</v>
       </c>
-      <c r="U15" s="10">
-        <f t="shared" ref="U15:W15" si="13">SUM(U2:U14)</f>
+      <c r="Z15" s="10">
+        <f t="shared" ref="Z15:AB15" si="24">SUM(Z2:Z14)</f>
         <v>735230.98999999987</v>
       </c>
-      <c r="V15" s="10">
-        <f t="shared" si="13"/>
+      <c r="AA15" s="10">
+        <f t="shared" si="24"/>
         <v>272797.7</v>
       </c>
-      <c r="W15" s="10">
-        <f t="shared" si="13"/>
+      <c r="AB15" s="10">
+        <f t="shared" si="24"/>
         <v>299051.94</v>
       </c>
-      <c r="X15" s="8">
-        <f t="shared" si="7"/>
+      <c r="AC15" s="8">
+        <f t="shared" si="18"/>
         <v>0.1372460196388349</v>
       </c>
-      <c r="AB15" s="10">
-        <f>SUM(AB2:AB14)</f>
+      <c r="AG15" s="10">
+        <f>SUM(AG2:AG14)</f>
         <v>821714.05800000019</v>
       </c>
-      <c r="AC15" s="10">
-        <f t="shared" ref="AC15" si="14">SUM(AC2:AC14)</f>
+      <c r="AH15" s="10">
+        <f t="shared" ref="AH15" si="25">SUM(AH2:AH14)</f>
         <v>544751.88800000004</v>
       </c>
-      <c r="AD15" s="10">
-        <f t="shared" ref="AD15" si="15">SUM(AD2:AD14)</f>
+      <c r="AI15" s="10">
+        <f t="shared" ref="AI15" si="26">SUM(AI2:AI14)</f>
         <v>244947.65899999999</v>
       </c>
-      <c r="AE15" s="10">
-        <f t="shared" ref="AE15" si="16">SUM(AE2:AE14)</f>
+      <c r="AJ15" s="10">
+        <f t="shared" ref="AJ15" si="27">SUM(AJ2:AJ14)</f>
         <v>567534.39500000002</v>
       </c>
-      <c r="AF15" s="7">
-        <f t="shared" si="12"/>
+      <c r="AK15" s="7">
+        <f t="shared" si="23"/>
         <v>0.26046256955191222</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
-      <c r="T16" s="13">
-        <f t="shared" ref="T16:W16" si="17">T15/$J$15</f>
+    <row r="16" spans="1:37">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" s="13">
+        <f t="shared" ref="Y16:AB16" si="28">Y15/$J$15</f>
         <v>0.40013225189403329</v>
       </c>
-      <c r="U16" s="13">
-        <f t="shared" si="17"/>
+      <c r="Z16" s="13">
+        <f t="shared" si="28"/>
         <v>0.33742475267881561</v>
       </c>
-      <c r="V16" s="13">
-        <f t="shared" si="17"/>
+      <c r="AA16" s="13">
+        <f t="shared" si="28"/>
         <v>0.12519697578831621</v>
       </c>
-      <c r="W16" s="13">
-        <f t="shared" si="17"/>
+      <c r="AB16" s="13">
+        <f t="shared" si="28"/>
         <v>0.1372460196388349</v>
       </c>
-      <c r="AB16" s="13">
-        <f>AB15/$J$15</f>
+      <c r="AG16" s="13">
+        <f>AG15/$J$15</f>
         <v>0.37711503808259772</v>
       </c>
-      <c r="AC16" s="13">
-        <f>AC15/J15</f>
+      <c r="AH16" s="13">
+        <f>AH15/J15</f>
         <v>0.25000683265502438</v>
       </c>
-      <c r="AD16" s="13">
-        <f>AD15/J15</f>
+      <c r="AI16" s="13">
+        <f>AI15/J15</f>
         <v>0.11241555971046578</v>
       </c>
-      <c r="AE16" s="13">
-        <f>AE15/$J$15</f>
+      <c r="AJ16" s="13">
+        <f>AJ15/$J$15</f>
         <v>0.26046256955191222</v>
       </c>
     </row>
-    <row r="17" spans="2:32">
-      <c r="T17" s="30" t="s">
+    <row r="17" spans="2:45">
+      <c r="Y17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="AB17" s="30" t="s">
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AG17" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-    </row>
-    <row r="19" spans="2:32" ht="45">
-      <c r="Q19" s="3" t="s">
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+    </row>
+    <row r="18" spans="2:45">
+      <c r="V18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" t="s">
+        <v>42</v>
+      </c>
+      <c r="X18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:45" ht="45">
+      <c r="V19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="Y19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="AB19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="AC19" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:32">
+      <c r="AD19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:45">
       <c r="B20">
         <v>20</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
+        <v>0.67</v>
+      </c>
+      <c r="T20">
+        <v>0.19</v>
+      </c>
+      <c r="U20">
+        <v>0.06</v>
+      </c>
+      <c r="V20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W20">
+        <v>0.16</v>
+      </c>
+      <c r="X20">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="Y20" s="6">
+        <f>V20*$J2</f>
+        <v>80110.8</v>
+      </c>
+      <c r="Z20" s="6">
+        <f t="shared" ref="Z20:AA20" si="29">W20*$J2</f>
+        <v>23304.959999999999</v>
+      </c>
+      <c r="AA20" s="6">
+        <f t="shared" si="29"/>
+        <v>10778.544</v>
+      </c>
+      <c r="AB20" s="6">
+        <f>J2-Y20-Z20-AA20</f>
+        <v>31461.695999999996</v>
+      </c>
+      <c r="AC20" s="8">
+        <f>AB20/J2</f>
+        <v>0.21599999999999997</v>
+      </c>
+      <c r="AD20">
         <v>0.59</v>
       </c>
-      <c r="R20">
-        <v>0.18</v>
-      </c>
-      <c r="S20">
+      <c r="AE20">
+        <v>0.16</v>
+      </c>
+      <c r="AF20">
         <v>0.11</v>
       </c>
-      <c r="T20" s="6">
-        <f>Q20*J20</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="6">
-        <f>J20*R20</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="6">
-        <f>J20*S20</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="6">
-        <f>J20-T20-U20-V20</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="8" t="e">
-        <f>W20/J20</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:32">
+      <c r="AG20" s="6">
+        <f>AD20*$I2</f>
+        <v>55685.700960000002</v>
+      </c>
+      <c r="AH20" s="6">
+        <f t="shared" ref="AH20:AI20" si="30">AE20*$I2</f>
+        <v>15101.207040000001</v>
+      </c>
+      <c r="AI20" s="6">
+        <f t="shared" si="30"/>
+        <v>10382.07984</v>
+      </c>
+      <c r="AJ20" s="6">
+        <f>J2-AG20-AH20-AI20</f>
+        <v>64487.012160000006</v>
+      </c>
+      <c r="AK20" s="8">
+        <f>AJ20/J2</f>
+        <v>0.4427350205964739</v>
+      </c>
+      <c r="AL20">
+        <v>0.59</v>
+      </c>
+      <c r="AM20">
+        <v>0.16</v>
+      </c>
+      <c r="AN20">
+        <v>0.11</v>
+      </c>
+      <c r="AO20" s="6">
+        <f>AL20*$M2</f>
+        <v>58437.1872</v>
+      </c>
+      <c r="AP20" s="6">
+        <f t="shared" ref="AP20:AQ20" si="31">AM20*$M2</f>
+        <v>15847.372800000001</v>
+      </c>
+      <c r="AQ20" s="6">
+        <f t="shared" si="31"/>
+        <v>10895.068800000001</v>
+      </c>
+      <c r="AR20" s="6">
+        <f>$J2-AO20-AP20-AQ20</f>
+        <v>60476.371200000001</v>
+      </c>
+      <c r="AS20" s="8">
+        <f>AR20/$J2</f>
+        <v>0.41520000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:45">
       <c r="B21">
         <v>25</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
+        <v>0.67</v>
+      </c>
+      <c r="T21">
+        <v>0.19</v>
+      </c>
+      <c r="U21">
+        <v>0.06</v>
+      </c>
+      <c r="V21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W21">
+        <v>0.16</v>
+      </c>
+      <c r="X21">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="Y21" s="6">
+        <f t="shared" ref="Y21:Y32" si="32">V21*$J3</f>
+        <v>84392.55</v>
+      </c>
+      <c r="Z21" s="6">
+        <f t="shared" ref="Z21:Z32" si="33">W21*$J3</f>
+        <v>24550.560000000001</v>
+      </c>
+      <c r="AA21" s="6">
+        <f t="shared" ref="AA21:AA32" si="34">X21*$J3</f>
+        <v>11354.634</v>
+      </c>
+      <c r="AB21" s="6">
+        <f t="shared" ref="AB21:AB32" si="35">J3-Y21-Z21-AA21</f>
+        <v>33143.256000000001</v>
+      </c>
+      <c r="AC21" s="8">
+        <f t="shared" ref="AC21:AC32" si="36">AB21/J3</f>
+        <v>0.216</v>
+      </c>
+      <c r="AD21">
         <v>0.59</v>
       </c>
-      <c r="R21">
-        <v>0.18</v>
-      </c>
-      <c r="S21">
+      <c r="AE21">
+        <v>0.16</v>
+      </c>
+      <c r="AF21">
         <v>0.11</v>
       </c>
-      <c r="T21" s="6">
-        <f t="shared" ref="T21:T32" si="18">Q21*J21</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <f t="shared" ref="U21:U32" si="19">J21*R21</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="6">
-        <f t="shared" ref="V21:V32" si="20">J21*S21</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="6">
-        <f t="shared" ref="W21:W32" si="21">J21-T21-U21-V21</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="8" t="e">
-        <f t="shared" ref="X21:X33" si="22">W21/J21</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:32">
+      <c r="AG21" s="6">
+        <f t="shared" ref="AG21:AG32" si="37">AD21*$I3</f>
+        <v>56525.665079999999</v>
+      </c>
+      <c r="AH21" s="6">
+        <f t="shared" ref="AH21:AH32" si="38">AE21*$I3</f>
+        <v>15328.993920000001</v>
+      </c>
+      <c r="AI21" s="6">
+        <f t="shared" ref="AI21:AI32" si="39">AF21*$I3</f>
+        <v>10538.68332</v>
+      </c>
+      <c r="AJ21" s="6">
+        <f t="shared" ref="AJ21:AJ32" si="40">J3-AG21-AH21-AI21</f>
+        <v>71047.657679999989</v>
+      </c>
+      <c r="AK21" s="8">
+        <f t="shared" ref="AK21:AK32" si="41">AJ21/J3</f>
+        <v>0.46302916221870288</v>
+      </c>
+      <c r="AL21">
+        <v>0.59</v>
+      </c>
+      <c r="AM21">
+        <v>0.16</v>
+      </c>
+      <c r="AN21">
+        <v>0.11</v>
+      </c>
+      <c r="AO21" s="6">
+        <f t="shared" ref="AO21:AO32" si="42">AL21*$M3</f>
+        <v>61560.529199999997</v>
+      </c>
+      <c r="AP21" s="6">
+        <f t="shared" ref="AP21:AP32" si="43">AM21*$M3</f>
+        <v>16694.380800000003</v>
+      </c>
+      <c r="AQ21" s="6">
+        <f t="shared" ref="AQ21:AQ32" si="44">AN21*$M3</f>
+        <v>11477.3868</v>
+      </c>
+      <c r="AR21" s="6">
+        <f t="shared" ref="AR21:AR32" si="45">$J3-AO21-AP21-AQ21</f>
+        <v>63708.703200000011</v>
+      </c>
+      <c r="AS21" s="8">
+        <f t="shared" ref="AS21:AS33" si="46">AR21/$J3</f>
+        <v>0.41520000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="2:45">
       <c r="B22">
         <v>30</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
+        <v>0.52</v>
+      </c>
+      <c r="T22">
+        <v>0.26</v>
+      </c>
+      <c r="U22">
+        <v>0.16</v>
+      </c>
+      <c r="V22">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="W22">
+        <v>0.22</v>
+      </c>
+      <c r="X22">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Y22" s="6">
+        <f t="shared" si="32"/>
+        <v>109404.838</v>
+      </c>
+      <c r="Z22" s="6">
+        <f t="shared" si="33"/>
+        <v>40048.36</v>
+      </c>
+      <c r="AA22" s="6">
+        <f t="shared" si="34"/>
+        <v>9830.0519999999997</v>
+      </c>
+      <c r="AB22" s="6">
+        <f t="shared" si="35"/>
+        <v>22754.749999999996</v>
+      </c>
+      <c r="AC22" s="8">
+        <f t="shared" si="36"/>
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AD22">
         <v>0.64</v>
       </c>
-      <c r="R22">
-        <v>0.2</v>
-      </c>
-      <c r="S22">
+      <c r="AE22">
+        <v>0.22</v>
+      </c>
+      <c r="AF22">
         <v>0.08</v>
       </c>
-      <c r="T22" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:32">
+      <c r="AG22" s="6">
+        <f t="shared" si="37"/>
+        <v>73929.409279999993</v>
+      </c>
+      <c r="AH22" s="6">
+        <f t="shared" si="38"/>
+        <v>25413.234439999997</v>
+      </c>
+      <c r="AI22" s="6">
+        <f t="shared" si="39"/>
+        <v>9241.1761599999991</v>
+      </c>
+      <c r="AJ22" s="6">
+        <f t="shared" si="40"/>
+        <v>73454.180120000005</v>
+      </c>
+      <c r="AK22" s="8">
+        <f t="shared" si="41"/>
+        <v>0.40351014689240711</v>
+      </c>
+      <c r="AL22">
+        <v>0.64</v>
+      </c>
+      <c r="AM22">
+        <v>0.22</v>
+      </c>
+      <c r="AN22">
+        <v>0.08</v>
+      </c>
+      <c r="AO22" s="6">
+        <f t="shared" si="42"/>
+        <v>90873.369600000005</v>
+      </c>
+      <c r="AP22" s="6">
+        <f t="shared" si="43"/>
+        <v>31237.720800000003</v>
+      </c>
+      <c r="AQ22" s="6">
+        <f t="shared" si="44"/>
+        <v>11359.171200000001</v>
+      </c>
+      <c r="AR22" s="6">
+        <f t="shared" si="45"/>
+        <v>48567.738399999987</v>
+      </c>
+      <c r="AS22" s="8">
+        <f t="shared" si="46"/>
+        <v>0.26679999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="2:45">
       <c r="B23">
         <v>35</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
+        <v>0.52</v>
+      </c>
+      <c r="T23">
+        <v>0.26</v>
+      </c>
+      <c r="U23">
+        <v>0.16</v>
+      </c>
+      <c r="V23">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="W23">
+        <v>0.22</v>
+      </c>
+      <c r="X23">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Y23" s="6">
+        <f t="shared" si="32"/>
+        <v>142116.66699999999</v>
+      </c>
+      <c r="Z23" s="6">
+        <f t="shared" si="33"/>
+        <v>52022.74</v>
+      </c>
+      <c r="AA23" s="6">
+        <f t="shared" si="34"/>
+        <v>12769.218000000001</v>
+      </c>
+      <c r="AB23" s="6">
+        <f t="shared" si="35"/>
+        <v>29558.375000000015</v>
+      </c>
+      <c r="AC23" s="8">
+        <f t="shared" si="36"/>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="AD23">
         <v>0.64</v>
       </c>
-      <c r="R23">
-        <v>0.2</v>
-      </c>
-      <c r="S23">
-        <v>0.08</v>
-      </c>
-      <c r="T23" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:32">
+      <c r="AE23">
+        <v>0.22</v>
+      </c>
+      <c r="AF23">
+        <v>0.3589</v>
+      </c>
+      <c r="AG23" s="6">
+        <f t="shared" si="37"/>
+        <v>96690.099199999997</v>
+      </c>
+      <c r="AH23" s="6">
+        <f t="shared" si="38"/>
+        <v>33237.221599999997</v>
+      </c>
+      <c r="AI23" s="6">
+        <f t="shared" si="39"/>
+        <v>54221.994692</v>
+      </c>
+      <c r="AJ23" s="6">
+        <f t="shared" si="40"/>
+        <v>52317.684508000013</v>
+      </c>
+      <c r="AK23" s="8">
+        <f t="shared" si="41"/>
+        <v>0.22124729669679072</v>
+      </c>
+      <c r="AL23">
+        <v>0.64</v>
+      </c>
+      <c r="AM23">
+        <v>0.22</v>
+      </c>
+      <c r="AN23">
+        <v>0.3589</v>
+      </c>
+      <c r="AO23" s="6">
+        <f t="shared" si="42"/>
+        <v>118044.32640000001</v>
+      </c>
+      <c r="AP23" s="6">
+        <f t="shared" si="43"/>
+        <v>40577.737200000003</v>
+      </c>
+      <c r="AQ23" s="6">
+        <f t="shared" si="44"/>
+        <v>66197.044913999998</v>
+      </c>
+      <c r="AR23" s="6">
+        <f t="shared" si="45"/>
+        <v>11647.891485999993</v>
+      </c>
+      <c r="AS23" s="8">
+        <f t="shared" si="46"/>
+        <v>4.9257999999999968E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:45">
       <c r="B24">
         <v>40</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
+        <v>0.45</v>
+      </c>
+      <c r="T24">
+        <v>0.36</v>
+      </c>
+      <c r="U24">
+        <v>0.15</v>
+      </c>
+      <c r="V24">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="W24">
+        <v>0.34</v>
+      </c>
+      <c r="X24">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Y24" s="6">
+        <f t="shared" si="32"/>
+        <v>76344.911999999997</v>
+      </c>
+      <c r="Z24" s="6">
+        <f t="shared" si="33"/>
+        <v>72913.680000000008</v>
+      </c>
+      <c r="AA24" s="6">
+        <f t="shared" si="34"/>
+        <v>31095.539999999997</v>
+      </c>
+      <c r="AB24" s="6">
+        <f t="shared" si="35"/>
+        <v>34097.867999999988</v>
+      </c>
+      <c r="AC24" s="8">
+        <f t="shared" si="36"/>
+        <v>0.15899999999999995</v>
+      </c>
+      <c r="AD24">
         <v>0.52</v>
       </c>
-      <c r="R24">
-        <v>0.35</v>
-      </c>
-      <c r="S24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T24" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32">
+      <c r="AE24">
+        <v>0.34</v>
+      </c>
+      <c r="AF24">
+        <v>0.3589</v>
+      </c>
+      <c r="AG24" s="6">
+        <f t="shared" si="37"/>
+        <v>68895.991320000001</v>
+      </c>
+      <c r="AH24" s="6">
+        <f t="shared" si="38"/>
+        <v>45047.378940000002</v>
+      </c>
+      <c r="AI24" s="6">
+        <f t="shared" si="39"/>
+        <v>47551.483239900001</v>
+      </c>
+      <c r="AJ24" s="6">
+        <f t="shared" si="40"/>
+        <v>52957.146500100003</v>
+      </c>
+      <c r="AK24" s="8">
+        <f t="shared" si="41"/>
+        <v>0.2469417235563203</v>
+      </c>
+      <c r="AL24">
+        <v>0.52</v>
+      </c>
+      <c r="AM24">
+        <v>0.34</v>
+      </c>
+      <c r="AN24">
+        <v>0.3589</v>
+      </c>
+      <c r="AO24" s="6">
+        <f t="shared" si="42"/>
+        <v>99248.385600000009</v>
+      </c>
+      <c r="AP24" s="6">
+        <f t="shared" si="43"/>
+        <v>64893.175200000005</v>
+      </c>
+      <c r="AQ24" s="6">
+        <f t="shared" si="44"/>
+        <v>68500.472292000006</v>
+      </c>
+      <c r="AR24" s="6">
+        <f t="shared" si="45"/>
+        <v>-18190.03309200002</v>
+      </c>
+      <c r="AS24" s="8">
+        <f t="shared" si="46"/>
+        <v>-8.4821000000000091E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:45">
       <c r="B25">
         <v>45</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
+        <v>0.45</v>
+      </c>
+      <c r="T25">
+        <v>0.36</v>
+      </c>
+      <c r="U25">
+        <v>0.15</v>
+      </c>
+      <c r="V25">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="W25">
+        <v>0.34</v>
+      </c>
+      <c r="X25">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Y25" s="6">
+        <f t="shared" si="32"/>
+        <v>71234.531999999992</v>
+      </c>
+      <c r="Z25" s="6">
+        <f t="shared" si="33"/>
+        <v>68032.98000000001</v>
+      </c>
+      <c r="AA25" s="6">
+        <f t="shared" si="34"/>
+        <v>29014.064999999999</v>
+      </c>
+      <c r="AB25" s="6">
+        <f t="shared" si="35"/>
+        <v>31815.422999999999</v>
+      </c>
+      <c r="AC25" s="8">
+        <f t="shared" si="36"/>
+        <v>0.159</v>
+      </c>
+      <c r="AD25">
         <v>0.52</v>
       </c>
-      <c r="R25">
-        <v>0.35</v>
-      </c>
-      <c r="S25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T25" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:32">
+      <c r="AE25">
+        <v>0.34</v>
+      </c>
+      <c r="AF25">
+        <v>0.3589</v>
+      </c>
+      <c r="AG25" s="6">
+        <f t="shared" si="37"/>
+        <v>70907.665919999999</v>
+      </c>
+      <c r="AH25" s="6">
+        <f t="shared" si="38"/>
+        <v>46362.704640000004</v>
+      </c>
+      <c r="AI25" s="6">
+        <f t="shared" si="39"/>
+        <v>48939.925574400004</v>
+      </c>
+      <c r="AJ25" s="6">
+        <f t="shared" si="40"/>
+        <v>33886.703865599986</v>
+      </c>
+      <c r="AK25" s="8">
+        <f t="shared" si="41"/>
+        <v>0.16935138390680513</v>
+      </c>
+      <c r="AL25">
+        <v>0.52</v>
+      </c>
+      <c r="AM25">
+        <v>0.34</v>
+      </c>
+      <c r="AN25">
+        <v>0.3589</v>
+      </c>
+      <c r="AO25" s="6">
+        <f t="shared" si="42"/>
+        <v>92604.891600000017</v>
+      </c>
+      <c r="AP25" s="6">
+        <f t="shared" si="43"/>
+        <v>60549.352200000008</v>
+      </c>
+      <c r="AQ25" s="6">
+        <f t="shared" si="44"/>
+        <v>63915.183837000004</v>
+      </c>
+      <c r="AR25" s="6">
+        <f t="shared" si="45"/>
+        <v>-16972.42763700003</v>
+      </c>
+      <c r="AS25" s="8">
+        <f t="shared" si="46"/>
+        <v>-8.4821000000000146E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:45">
       <c r="B26">
         <v>50</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
+        <v>0.36</v>
+      </c>
+      <c r="T26">
+        <v>0.4</v>
+      </c>
+      <c r="U26">
+        <v>0.21</v>
+      </c>
+      <c r="V26">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="W26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X26">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Y26" s="6">
+        <f t="shared" si="32"/>
+        <v>54338.739000000001</v>
+      </c>
+      <c r="Z26" s="6">
+        <f t="shared" si="33"/>
+        <v>57722.469999999994</v>
+      </c>
+      <c r="AA26" s="6">
+        <f t="shared" si="34"/>
+        <v>39410.514000000003</v>
+      </c>
+      <c r="AB26" s="6">
+        <f t="shared" si="35"/>
+        <v>47571.276999999995</v>
+      </c>
+      <c r="AC26" s="8">
+        <f t="shared" si="36"/>
+        <v>0.23899999999999996</v>
+      </c>
+      <c r="AD26">
         <v>0.32</v>
       </c>
-      <c r="R26">
-        <v>0.42</v>
-      </c>
-      <c r="S26">
-        <v>0.12</v>
-      </c>
-      <c r="T26" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:32">
+      <c r="AE26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF26">
+        <v>0.3589</v>
+      </c>
+      <c r="AG26" s="6">
+        <f t="shared" si="37"/>
+        <v>43421.515200000009</v>
+      </c>
+      <c r="AH26" s="6">
+        <f t="shared" si="38"/>
+        <v>39350.748149999999</v>
+      </c>
+      <c r="AI26" s="6">
+        <f t="shared" si="39"/>
+        <v>48699.943141500007</v>
+      </c>
+      <c r="AJ26" s="6">
+        <f t="shared" si="40"/>
+        <v>67570.793508499977</v>
+      </c>
+      <c r="AK26" s="8">
+        <f t="shared" si="41"/>
+        <v>0.33947837155036842</v>
+      </c>
+      <c r="AL26">
+        <v>0.32</v>
+      </c>
+      <c r="AM26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AN26">
+        <v>0.3589</v>
+      </c>
+      <c r="AO26" s="6">
+        <f t="shared" si="42"/>
+        <v>56687.446400000001</v>
+      </c>
+      <c r="AP26" s="6">
+        <f t="shared" si="43"/>
+        <v>51372.998299999992</v>
+      </c>
+      <c r="AQ26" s="6">
+        <f t="shared" si="44"/>
+        <v>63578.514102999994</v>
+      </c>
+      <c r="AR26" s="6">
+        <f t="shared" si="45"/>
+        <v>27404.041196999999</v>
+      </c>
+      <c r="AS26" s="8">
+        <f t="shared" si="46"/>
+        <v>0.137679</v>
+      </c>
+    </row>
+    <row r="27" spans="2:45">
       <c r="B27">
         <v>55</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
+        <v>0.36</v>
+      </c>
+      <c r="T27">
+        <v>0.4</v>
+      </c>
+      <c r="U27">
+        <v>0.21</v>
+      </c>
+      <c r="V27">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="W27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X27">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Y27" s="6">
+        <f t="shared" si="32"/>
+        <v>54728.856000000007</v>
+      </c>
+      <c r="Z27" s="6">
+        <f t="shared" si="33"/>
+        <v>58136.88</v>
+      </c>
+      <c r="AA27" s="6">
+        <f t="shared" si="34"/>
+        <v>39693.455999999998</v>
+      </c>
+      <c r="AB27" s="6">
+        <f t="shared" si="35"/>
+        <v>47912.807999999997</v>
+      </c>
+      <c r="AC27" s="8">
+        <f t="shared" si="36"/>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="AD27">
         <v>0.32</v>
       </c>
-      <c r="R27">
-        <v>0.42</v>
-      </c>
-      <c r="S27">
-        <v>0.12</v>
-      </c>
-      <c r="T27" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:32">
+      <c r="AE27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF27">
+        <v>0.3589</v>
+      </c>
+      <c r="AG27" s="6">
+        <f t="shared" si="37"/>
+        <v>46116.602880000006</v>
+      </c>
+      <c r="AH27" s="6">
+        <f t="shared" si="38"/>
+        <v>41793.17136</v>
+      </c>
+      <c r="AI27" s="6">
+        <f t="shared" si="39"/>
+        <v>51722.652417600009</v>
+      </c>
+      <c r="AJ27" s="6">
+        <f t="shared" si="40"/>
+        <v>60839.573342399963</v>
+      </c>
+      <c r="AK27" s="8">
+        <f t="shared" si="41"/>
+        <v>0.30348165001795746</v>
+      </c>
+      <c r="AL27">
+        <v>0.32</v>
+      </c>
+      <c r="AM27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AN27">
+        <v>0.3589</v>
+      </c>
+      <c r="AO27" s="6">
+        <f t="shared" si="42"/>
+        <v>57094.42560000001</v>
+      </c>
+      <c r="AP27" s="6">
+        <f t="shared" si="43"/>
+        <v>51741.823199999999</v>
+      </c>
+      <c r="AQ27" s="6">
+        <f t="shared" si="44"/>
+        <v>64034.966712000009</v>
+      </c>
+      <c r="AR27" s="6">
+        <f t="shared" si="45"/>
+        <v>27600.784487999976</v>
+      </c>
+      <c r="AS27" s="8">
+        <f t="shared" si="46"/>
+        <v>0.13767899999999988</v>
+      </c>
+    </row>
+    <row r="28" spans="2:45">
       <c r="B28">
         <v>60</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
+        <v>0.32</v>
+      </c>
+      <c r="T28">
+        <v>0.35</v>
+      </c>
+      <c r="U28">
+        <v>0.3</v>
+      </c>
+      <c r="V28">
         <v>0.13</v>
       </c>
-      <c r="R28">
-        <v>0.44</v>
-      </c>
-      <c r="S28">
-        <v>0.2</v>
-      </c>
-      <c r="T28" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:32">
+      <c r="W28">
+        <v>0.26</v>
+      </c>
+      <c r="X28">
+        <v>0.3589</v>
+      </c>
+      <c r="Y28" s="6">
+        <f t="shared" si="32"/>
+        <v>25287.99</v>
+      </c>
+      <c r="Z28" s="6">
+        <f t="shared" si="33"/>
+        <v>50575.98</v>
+      </c>
+      <c r="AA28" s="6">
+        <f t="shared" si="34"/>
+        <v>69814.304699999993</v>
+      </c>
+      <c r="AB28" s="6">
+        <f t="shared" si="35"/>
+        <v>48844.725300000006</v>
+      </c>
+      <c r="AC28" s="8">
+        <f t="shared" si="36"/>
+        <v>0.25110000000000005</v>
+      </c>
+      <c r="AD28">
+        <v>0.13</v>
+      </c>
+      <c r="AE28">
+        <v>0.26</v>
+      </c>
+      <c r="AF28">
+        <v>0.3589</v>
+      </c>
+      <c r="AG28" s="6">
+        <f t="shared" si="37"/>
+        <v>19255.88132</v>
+      </c>
+      <c r="AH28" s="6">
+        <f t="shared" si="38"/>
+        <v>38511.762640000001</v>
+      </c>
+      <c r="AI28" s="6">
+        <f t="shared" si="39"/>
+        <v>53161.044659599997</v>
+      </c>
+      <c r="AJ28" s="6">
+        <f t="shared" si="40"/>
+        <v>83594.311380400017</v>
+      </c>
+      <c r="AK28" s="8">
+        <f t="shared" si="41"/>
+        <v>0.42973998643039651</v>
+      </c>
+      <c r="AL28">
+        <v>0.13</v>
+      </c>
+      <c r="AM28">
+        <v>0.26</v>
+      </c>
+      <c r="AN28">
+        <v>0.3589</v>
+      </c>
+      <c r="AO28" s="6">
+        <f t="shared" si="42"/>
+        <v>22759.191000000003</v>
+      </c>
+      <c r="AP28" s="6">
+        <f t="shared" si="43"/>
+        <v>45518.382000000005</v>
+      </c>
+      <c r="AQ28" s="6">
+        <f t="shared" si="44"/>
+        <v>62832.874230000001</v>
+      </c>
+      <c r="AR28" s="6">
+        <f t="shared" si="45"/>
+        <v>63412.552769999995</v>
+      </c>
+      <c r="AS28" s="8">
+        <f t="shared" si="46"/>
+        <v>0.32598999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:45">
       <c r="B29">
         <v>65</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
+        <v>0.32</v>
+      </c>
+      <c r="T29">
+        <v>0.35</v>
+      </c>
+      <c r="U29">
+        <v>0.3</v>
+      </c>
+      <c r="V29">
         <v>0.13</v>
       </c>
-      <c r="R29">
-        <v>0.44</v>
-      </c>
-      <c r="S29">
-        <v>0.2</v>
-      </c>
-      <c r="T29" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:32">
+      <c r="W29">
+        <v>0.26</v>
+      </c>
+      <c r="X29">
+        <v>0.3589</v>
+      </c>
+      <c r="Y29" s="6">
+        <f t="shared" si="32"/>
+        <v>22164.74</v>
+      </c>
+      <c r="Z29" s="6">
+        <f t="shared" si="33"/>
+        <v>44329.48</v>
+      </c>
+      <c r="AA29" s="6">
+        <f t="shared" si="34"/>
+        <v>61191.732199999999</v>
+      </c>
+      <c r="AB29" s="6">
+        <f t="shared" si="35"/>
+        <v>42812.0478</v>
+      </c>
+      <c r="AC29" s="8">
+        <f t="shared" si="36"/>
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="AD29">
+        <v>0.13</v>
+      </c>
+      <c r="AE29">
+        <v>0.26</v>
+      </c>
+      <c r="AF29">
+        <v>0.3589</v>
+      </c>
+      <c r="AG29" s="6">
+        <f t="shared" si="37"/>
+        <v>17303.2405</v>
+      </c>
+      <c r="AH29" s="6">
+        <f t="shared" si="38"/>
+        <v>34606.481</v>
+      </c>
+      <c r="AI29" s="6">
+        <f t="shared" si="39"/>
+        <v>47770.253965000004</v>
+      </c>
+      <c r="AJ29" s="6">
+        <f t="shared" si="40"/>
+        <v>70818.024534999975</v>
+      </c>
+      <c r="AK29" s="8">
+        <f t="shared" si="41"/>
+        <v>0.41535985486633259</v>
+      </c>
+      <c r="AL29">
+        <v>0.13</v>
+      </c>
+      <c r="AM29">
+        <v>0.26</v>
+      </c>
+      <c r="AN29">
+        <v>0.3589</v>
+      </c>
+      <c r="AO29" s="6">
+        <f t="shared" si="42"/>
+        <v>19948.266000000003</v>
+      </c>
+      <c r="AP29" s="6">
+        <f t="shared" si="43"/>
+        <v>39896.532000000007</v>
+      </c>
+      <c r="AQ29" s="6">
+        <f t="shared" si="44"/>
+        <v>55072.558980000002</v>
+      </c>
+      <c r="AR29" s="6">
+        <f t="shared" si="45"/>
+        <v>55580.643019999989</v>
+      </c>
+      <c r="AS29" s="8">
+        <f t="shared" si="46"/>
+        <v>0.32598999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="2:45">
       <c r="B30">
         <v>70</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
+        <v>0.32</v>
+      </c>
+      <c r="T30">
+        <v>0.35</v>
+      </c>
+      <c r="U30">
+        <v>0.3</v>
+      </c>
+      <c r="V30">
         <v>0.13</v>
       </c>
-      <c r="R30">
-        <v>0.44</v>
-      </c>
-      <c r="S30">
-        <v>0.2</v>
-      </c>
-      <c r="T30" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:32">
+      <c r="W30">
+        <v>0.26</v>
+      </c>
+      <c r="X30">
+        <v>0.3589</v>
+      </c>
+      <c r="Y30" s="6">
+        <f t="shared" si="32"/>
+        <v>12700.87</v>
+      </c>
+      <c r="Z30" s="6">
+        <f t="shared" si="33"/>
+        <v>25401.74</v>
+      </c>
+      <c r="AA30" s="6">
+        <f t="shared" si="34"/>
+        <v>35064.1711</v>
+      </c>
+      <c r="AB30" s="6">
+        <f t="shared" si="35"/>
+        <v>24532.2189</v>
+      </c>
+      <c r="AC30" s="8">
+        <f t="shared" si="36"/>
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="AD30">
+        <v>0.13</v>
+      </c>
+      <c r="AE30">
+        <v>0.26</v>
+      </c>
+      <c r="AF30">
+        <v>0.3589</v>
+      </c>
+      <c r="AG30" s="6">
+        <f t="shared" si="37"/>
+        <v>10266.85686</v>
+      </c>
+      <c r="AH30" s="6">
+        <f t="shared" si="38"/>
+        <v>20533.71372</v>
+      </c>
+      <c r="AI30" s="6">
+        <f t="shared" si="39"/>
+        <v>28344.422515800001</v>
+      </c>
+      <c r="AJ30" s="6">
+        <f t="shared" si="40"/>
+        <v>38554.006904199996</v>
+      </c>
+      <c r="AK30" s="8">
+        <f t="shared" si="41"/>
+        <v>0.39462028172448027</v>
+      </c>
+      <c r="AL30">
+        <v>0.13</v>
+      </c>
+      <c r="AM30">
+        <v>0.26</v>
+      </c>
+      <c r="AN30">
+        <v>0.3589</v>
+      </c>
+      <c r="AO30" s="6">
+        <f t="shared" si="42"/>
+        <v>11430.783000000001</v>
+      </c>
+      <c r="AP30" s="6">
+        <f t="shared" si="43"/>
+        <v>22861.566000000003</v>
+      </c>
+      <c r="AQ30" s="6">
+        <f t="shared" si="44"/>
+        <v>31557.753990000001</v>
+      </c>
+      <c r="AR30" s="6">
+        <f t="shared" si="45"/>
+        <v>31848.897009999997</v>
+      </c>
+      <c r="AS30" s="8">
+        <f t="shared" si="46"/>
+        <v>0.32598999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="2:45">
       <c r="B31">
         <v>75</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
+        <v>0.32</v>
+      </c>
+      <c r="T31">
+        <v>0.35</v>
+      </c>
+      <c r="U31">
+        <v>0.3</v>
+      </c>
+      <c r="V31">
         <v>0.13</v>
       </c>
-      <c r="R31">
-        <v>0.44</v>
-      </c>
-      <c r="S31">
-        <v>0.2</v>
-      </c>
-      <c r="T31" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:32">
+      <c r="W31">
+        <v>0.26</v>
+      </c>
+      <c r="X31">
+        <v>0.3589</v>
+      </c>
+      <c r="Y31" s="6">
+        <f t="shared" si="32"/>
+        <v>9993.880000000001</v>
+      </c>
+      <c r="Z31" s="6">
+        <f t="shared" si="33"/>
+        <v>19987.760000000002</v>
+      </c>
+      <c r="AA31" s="6">
+        <f t="shared" si="34"/>
+        <v>27590.796399999999</v>
+      </c>
+      <c r="AB31" s="6">
+        <f t="shared" si="35"/>
+        <v>19303.563599999994</v>
+      </c>
+      <c r="AC31" s="8">
+        <f t="shared" si="36"/>
+        <v>0.25109999999999993</v>
+      </c>
+      <c r="AD31">
+        <v>0.13</v>
+      </c>
+      <c r="AE31">
+        <v>0.26</v>
+      </c>
+      <c r="AF31">
+        <v>0.3589</v>
+      </c>
+      <c r="AG31" s="6">
+        <f t="shared" si="37"/>
+        <v>7445.4409900000001</v>
+      </c>
+      <c r="AH31" s="6">
+        <f t="shared" si="38"/>
+        <v>14890.88198</v>
+      </c>
+      <c r="AI31" s="6">
+        <f t="shared" si="39"/>
+        <v>20555.144394700001</v>
+      </c>
+      <c r="AJ31" s="6">
+        <f t="shared" si="40"/>
+        <v>33984.532635299998</v>
+      </c>
+      <c r="AK31" s="8">
+        <f t="shared" si="41"/>
+        <v>0.44206947077501429</v>
+      </c>
+      <c r="AL31">
+        <v>0.13</v>
+      </c>
+      <c r="AM31">
+        <v>0.26</v>
+      </c>
+      <c r="AN31">
+        <v>0.3589</v>
+      </c>
+      <c r="AO31" s="6">
+        <f t="shared" si="42"/>
+        <v>8994.492000000002</v>
+      </c>
+      <c r="AP31" s="6">
+        <f t="shared" si="43"/>
+        <v>17988.984000000004</v>
+      </c>
+      <c r="AQ31" s="6">
+        <f t="shared" si="44"/>
+        <v>24831.716760000003</v>
+      </c>
+      <c r="AR31" s="6">
+        <f t="shared" si="45"/>
+        <v>25060.807239999995</v>
+      </c>
+      <c r="AS31" s="8">
+        <f t="shared" si="46"/>
+        <v>0.32598999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="2:45">
       <c r="B32">
         <v>80</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
+        <v>0.32</v>
+      </c>
+      <c r="T32">
+        <v>0.35</v>
+      </c>
+      <c r="U32">
+        <v>0.3</v>
+      </c>
+      <c r="V32">
         <v>0.13</v>
       </c>
-      <c r="R32">
-        <v>0.44</v>
-      </c>
-      <c r="S32">
-        <v>0.2</v>
-      </c>
-      <c r="T32" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="17:24">
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="10">
-        <f>SUM(T20:T32)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="10">
-        <f t="shared" ref="U33:W33" si="23">SUM(U20:U32)</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="8" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="17:24">
-      <c r="T34" s="13">
-        <f t="shared" ref="T34:W34" si="24">T33/$J$15</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="13">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="13">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="17:24">
-      <c r="T35" s="30" t="s">
+      <c r="W32">
+        <v>0.26</v>
+      </c>
+      <c r="X32">
+        <v>0.3589</v>
+      </c>
+      <c r="Y32" s="6">
+        <f t="shared" si="32"/>
+        <v>13999.18</v>
+      </c>
+      <c r="Z32" s="6">
+        <f t="shared" si="33"/>
+        <v>27998.36</v>
+      </c>
+      <c r="AA32" s="6">
+        <f t="shared" si="34"/>
+        <v>38648.505400000002</v>
+      </c>
+      <c r="AB32" s="6">
+        <f t="shared" si="35"/>
+        <v>27039.954600000005</v>
+      </c>
+      <c r="AC32" s="8">
+        <f t="shared" si="36"/>
+        <v>0.25110000000000005</v>
+      </c>
+      <c r="AD32">
+        <v>0.13</v>
+      </c>
+      <c r="AE32">
+        <v>0.26</v>
+      </c>
+      <c r="AF32">
+        <v>0.3589</v>
+      </c>
+      <c r="AG32" s="6">
+        <f t="shared" si="37"/>
+        <v>8501.8157900000006</v>
+      </c>
+      <c r="AH32" s="6">
+        <f t="shared" si="38"/>
+        <v>17003.631580000001</v>
+      </c>
+      <c r="AI32" s="6">
+        <f t="shared" si="39"/>
+        <v>23471.5514387</v>
+      </c>
+      <c r="AJ32" s="6">
+        <f t="shared" si="40"/>
+        <v>58709.001191300005</v>
+      </c>
+      <c r="AK32" s="8">
+        <f t="shared" si="41"/>
+        <v>0.54518694344018725</v>
+      </c>
+      <c r="AL32">
+        <v>0.13</v>
+      </c>
+      <c r="AM32">
+        <v>0.26</v>
+      </c>
+      <c r="AN32">
+        <v>0.3589</v>
+      </c>
+      <c r="AO32" s="6">
+        <f t="shared" si="42"/>
+        <v>12599.262000000002</v>
+      </c>
+      <c r="AP32" s="6">
+        <f t="shared" si="43"/>
+        <v>25198.524000000005</v>
+      </c>
+      <c r="AQ32" s="6">
+        <f t="shared" si="44"/>
+        <v>34783.654860000002</v>
+      </c>
+      <c r="AR32" s="6">
+        <f t="shared" si="45"/>
+        <v>35104.55913999999</v>
+      </c>
+      <c r="AS32" s="8">
+        <f t="shared" si="46"/>
+        <v>0.32598999999999989</v>
+      </c>
+    </row>
+    <row r="33" spans="22:45">
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="10">
+        <f>SUM(Y20:Y32)</f>
+        <v>756818.554</v>
+      </c>
+      <c r="Z33" s="10">
+        <f t="shared" ref="Z33:AB33" si="47">SUM(Z20:Z32)</f>
+        <v>565025.94999999995</v>
+      </c>
+      <c r="AA33" s="10">
+        <f t="shared" si="47"/>
+        <v>416255.53279999999</v>
+      </c>
+      <c r="AB33" s="10">
+        <f t="shared" si="47"/>
+        <v>440847.9632</v>
+      </c>
+      <c r="AC33" s="8">
+        <f>AB33/J15</f>
+        <v>0.20232147036092646</v>
+      </c>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="10">
+        <f>SUM(AG20:AG32)</f>
+        <v>574945.88530000008</v>
+      </c>
+      <c r="AH33" s="10">
+        <f t="shared" ref="AH33:AJ33" si="48">SUM(AH20:AH32)</f>
+        <v>387181.13101000001</v>
+      </c>
+      <c r="AI33" s="10">
+        <f t="shared" si="48"/>
+        <v>454600.35535919998</v>
+      </c>
+      <c r="AJ33" s="10">
+        <f t="shared" si="48"/>
+        <v>762220.62833079975</v>
+      </c>
+      <c r="AK33" s="8">
+        <f>AJ33/J15</f>
+        <v>0.34981129808090866</v>
+      </c>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="10">
+        <f>SUM(AO20:AO32)</f>
+        <v>710282.55560000008</v>
+      </c>
+      <c r="AP33" s="10">
+        <f t="shared" ref="AP33:AR33" si="49">SUM(AP20:AP32)</f>
+        <v>484378.54849999992</v>
+      </c>
+      <c r="AQ33" s="10">
+        <f t="shared" si="49"/>
+        <v>569036.367478</v>
+      </c>
+      <c r="AR33" s="10">
+        <f t="shared" si="49"/>
+        <v>415250.52842199989</v>
+      </c>
+      <c r="AS33" s="8">
+        <f t="shared" si="46"/>
+        <v>0.19057385877129693</v>
+      </c>
+    </row>
+    <row r="34" spans="22:45">
+      <c r="Y34" s="13">
+        <f t="shared" ref="Y34:AB34" si="50">Y33/$J$15</f>
+        <v>0.34733208594239057</v>
+      </c>
+      <c r="Z34" s="13">
+        <f t="shared" si="50"/>
+        <v>0.2593113511657919</v>
+      </c>
+      <c r="AA34" s="13">
+        <f t="shared" si="50"/>
+        <v>0.19103509253089104</v>
+      </c>
+      <c r="AB34" s="13">
+        <f t="shared" si="50"/>
+        <v>0.20232147036092646</v>
+      </c>
+      <c r="AG34" s="13">
+        <f t="shared" ref="AG34:AJ34" si="51">AG33/$J$15</f>
+        <v>0.26386397715778442</v>
+      </c>
+      <c r="AH34" s="13">
+        <f t="shared" si="51"/>
+        <v>0.17769177190552507</v>
+      </c>
+      <c r="AI34" s="13">
+        <f t="shared" si="51"/>
+        <v>0.20863295285578176</v>
+      </c>
+      <c r="AJ34" s="13">
+        <f t="shared" si="51"/>
+        <v>0.34981129808090866</v>
+      </c>
+      <c r="AO34" s="13">
+        <f t="shared" ref="AO34:AR34" si="52">AO33/$J$15</f>
+        <v>0.32597499141787695</v>
+      </c>
+      <c r="AP34" s="13">
+        <f t="shared" si="52"/>
+        <v>0.22229926941808612</v>
+      </c>
+      <c r="AQ34" s="13">
+        <f t="shared" si="52"/>
+        <v>0.26115188039274001</v>
+      </c>
+      <c r="AR34" s="13">
+        <f t="shared" si="52"/>
+        <v>0.19057385877129693</v>
+      </c>
+    </row>
+    <row r="35" spans="22:45">
+      <c r="Y35" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
+      <c r="AG35" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH35" s="30"/>
+      <c r="AI35" s="30"/>
+      <c r="AJ35" s="30"/>
+      <c r="AK35" s="30"/>
+      <c r="AO35" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP35" s="30"/>
+      <c r="AQ35" s="30"/>
+      <c r="AR35" s="30"/>
+      <c r="AS35" s="30"/>
+    </row>
+    <row r="36" spans="22:45">
+      <c r="Y36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG36">
+        <v>2016</v>
+      </c>
+      <c r="AO36">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="48" spans="22:45">
+      <c r="AH48" t="str">
+        <f>'[1]Sheet1 (2)'!$U$1</f>
+        <v>連勝文</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F23759-5E1D-BD42-8A7D-BEE0763D4D81}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:Q19"/>
+      <selection activeCell="M34" activeCellId="1" sqref="N32 M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -3979,6 +6316,241 @@
       </c>
       <c r="R29" s="28">
         <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="16">
+      <c r="B30" s="31">
+        <v>75112</v>
+      </c>
+      <c r="C30" s="31">
+        <v>77563</v>
+      </c>
+      <c r="D30" s="31">
+        <v>85936</v>
+      </c>
+      <c r="E30" s="31">
+        <v>110995</v>
+      </c>
+      <c r="F30" s="31">
+        <v>99979</v>
+      </c>
+      <c r="G30" s="31">
+        <v>92548</v>
+      </c>
+      <c r="H30" s="31">
+        <v>92256</v>
+      </c>
+      <c r="I30" s="31">
+        <v>92784</v>
+      </c>
+      <c r="J30" s="31">
+        <v>90161</v>
+      </c>
+      <c r="K30" s="31">
+        <v>78113</v>
+      </c>
+      <c r="L30" s="31">
+        <v>44243</v>
+      </c>
+      <c r="M30" s="31">
+        <v>32947</v>
+      </c>
+      <c r="N30" s="31">
+        <v>46969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="N31">
+        <f>SUM(N33:R33)</f>
+        <v>46969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="N32">
+        <f>SUM(N34:R34)</f>
+        <v>60717</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="16">
+      <c r="B33" s="31">
+        <v>75112</v>
+      </c>
+      <c r="C33" s="31">
+        <v>77563</v>
+      </c>
+      <c r="D33" s="31">
+        <v>85936</v>
+      </c>
+      <c r="E33" s="31">
+        <v>110995</v>
+      </c>
+      <c r="F33" s="31">
+        <v>99979</v>
+      </c>
+      <c r="G33" s="31">
+        <v>92548</v>
+      </c>
+      <c r="H33" s="31">
+        <v>92256</v>
+      </c>
+      <c r="I33" s="31">
+        <v>92784</v>
+      </c>
+      <c r="J33" s="31">
+        <v>90161</v>
+      </c>
+      <c r="K33" s="31">
+        <v>78113</v>
+      </c>
+      <c r="L33" s="31">
+        <v>44243</v>
+      </c>
+      <c r="M33" s="31">
+        <v>32947</v>
+      </c>
+      <c r="N33" s="31">
+        <v>20546</v>
+      </c>
+      <c r="O33" s="31">
+        <v>15798</v>
+      </c>
+      <c r="P33" s="31">
+        <v>8041</v>
+      </c>
+      <c r="Q33" s="31">
+        <v>2223</v>
+      </c>
+      <c r="R33" s="31">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" ht="16">
+      <c r="B34" s="31">
+        <v>70544</v>
+      </c>
+      <c r="C34" s="31">
+        <v>75878</v>
+      </c>
+      <c r="D34" s="31">
+        <v>96102</v>
+      </c>
+      <c r="E34" s="31">
+        <v>125472</v>
+      </c>
+      <c r="F34" s="31">
+        <v>114473</v>
+      </c>
+      <c r="G34" s="31">
+        <v>107549</v>
+      </c>
+      <c r="H34" s="31">
+        <v>106787</v>
+      </c>
+      <c r="I34" s="31">
+        <v>107688</v>
+      </c>
+      <c r="J34" s="31">
+        <v>104362</v>
+      </c>
+      <c r="K34" s="31">
+        <v>92385</v>
+      </c>
+      <c r="L34" s="31">
+        <v>53456</v>
+      </c>
+      <c r="M34" s="31">
+        <v>43929</v>
+      </c>
+      <c r="N34" s="31">
+        <v>30415</v>
+      </c>
+      <c r="O34" s="31">
+        <v>18659</v>
+      </c>
+      <c r="P34" s="31">
+        <v>8858</v>
+      </c>
+      <c r="Q34" s="31">
+        <v>2380</v>
+      </c>
+      <c r="R34" s="31">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35">
+        <f>SUM(B33:B34)</f>
+        <v>145656</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:R35" si="3">SUM(C33:C34)</f>
+        <v>153441</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>182038</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>236467</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>214452</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>200097</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>199043</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>200472</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>194523</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>170498</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>97699</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>76876</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>50961</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>34457</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>16899</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="3"/>
+        <v>4603</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>766</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="N36">
+        <f>SUM(N35:R35)</f>
+        <v>107686</v>
       </c>
     </row>
   </sheetData>
